--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CE89D8-2162-4981-99FF-DAF81ED2032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AF0D90-87AE-4A04-80C8-3614F8223857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S1aH7,S1c0426h10,S1c0426h14,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0412h07,S1c0426h18,S2aH6,S3aH5,S5aH3,S5d1017h11,S5d1017h14,S4aH5,S1b0412h14,S5d1017h07,S5d1017h15,S2aH7,S3aH4,S4aH3,S4aH4,S1b0412h09,S1b0412h11,S1c0426h13,S3aH3,S1aH5,S1b0412h12,S2aH4,S2aH5,S5aH2,S5aH5,S5d1017h08,S6aH2,S1b0412h17,S1c0426h08,S1c0426h15,S3aH2,S5d1017h12,S5d1017h18,S1c0426h11,S1c0426h17,S6aH7,S1aH4,S1b0412h08,S2aH2,S4aH6,S5d1017h16,S1b0412h13,S1b0412h18,S1c0426h09,S5aH4,S6aH3,S6aH4,S5d1017h13,S6aH5,S1aH3,S1b0412h10,S5d1017h17,S1b0412h15,S1c0426h07,S4aH2,S1c0426h12,S1c0426h16,S3aH7,S5d1017h10,S1aH6,S1b0412h16,S5d1017h09</t>
-  </si>
-  <si>
-    <t>S1b0412h19,S1c0426h19,S1aH8,S5aH1,S1aH1,S1b0412h23,S1c0426h03,S1c0426h06,S1c0426h22,S5d1017h06,S5d1017h23,S1b0412h02,S5d1017h01,S1b0412h01,S1b0412h03,S1b0412h04,S5d1017h03,S5d1017h04,S5d1017h21,S1c0426h21,S1b0412h20,S1c0426h05,S3aH8,S5d1017h02,S5d1017h05,S5d1017h20,S3aH1,S5d1017h19,S1c0426h01,S1c0426h02,S1c0426h20,S4aH1,S6aH1,S1b0412h24,S1b0412h05,S1b0412h21,S1c0426h23,S4aH8,S1b0412h06,S5d1017h24,S1b0412h22,S1c0426h24,S2aH1,S5aH8,S2aH8,S5d1017h22,S1c0426h04,S6aH8</t>
+    <t>S1c0426h12,S1c0426h16,S3aH7,S5d1017h10,S1b0412h15,S1c0426h07,S4aH2,S1b0412h07,S1c0426h18,S2aH6,S3aH5,S5aH3,S5d1017h11,S5d1017h14,S1aH2,S1aH7,S1c0426h10,S1c0426h14,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0412h12,S2aH4,S2aH5,S5aH2,S5aH5,S5d1017h08,S6aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1b0412h13,S1b0412h18,S1c0426h09,S5aH4,S6aH3,S6aH4,S1b0412h14,S5d1017h07,S5d1017h15,S1b0412h17,S1c0426h08,S1c0426h15,S3aH2,S5d1017h12,S5d1017h18,S5d1017h13,S6aH5,S1c0426h11,S1c0426h17,S6aH7,S1aH3,S1b0412h10,S5d1017h17,S1aH6,S1b0412h16,S5d1017h09,S1b0412h09,S1b0412h11,S1c0426h13,S3aH3,S4aH5,S1aH4,S1b0412h08,S2aH2,S4aH6,S5d1017h16</t>
+  </si>
+  <si>
+    <t>S2aH8,S5d1017h22,S1b0412h22,S1c0426h24,S2aH1,S5aH8,S1aH8,S5aH1,S1b0412h19,S1c0426h19,S1c0426h21,S1b0412h02,S5d1017h01,S1b0412h24,S1aH1,S1b0412h23,S1c0426h03,S1c0426h06,S1c0426h22,S5d1017h06,S5d1017h23,S1b0412h20,S1c0426h05,S3aH8,S5d1017h02,S5d1017h05,S5d1017h20,S1b0412h05,S1b0412h21,S1c0426h23,S4aH8,S3aH1,S5d1017h19,S1b0412h06,S5d1017h24,S1c0426h04,S6aH8,S1b0412h01,S1b0412h03,S1b0412h04,S5d1017h03,S5d1017h04,S5d1017h21,S1c0426h01,S1c0426h02,S1c0426h20,S4aH1,S6aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0412h19,S1c0426h19,S1aH8,S5aH1,S1aH1,S1b0412h23,S1c0426h03,S1c0426h06,S1c0426h22,S5d1017h06,S5d1017h23,S1b0412h02,S5d1017h01,S1b0412h01,S1b0412h03,S1b0412h04,S5d1017h03,S5d1017h04,S5d1017h21,S1c0426h21,S1b0412h20,S1c0426h05,S3aH8,S5d1017h02,S5d1017h05,S5d1017h20,S3aH1,S5d1017h19,S1c0426h01,S1c0426h02,S1c0426h20,S4aH1,S6aH1,S1b0412h24,S1b0412h05,S1b0412h21,S1c0426h23,S4aH8,S1b0412h06,S5d1017h24,S1b0412h22,S1c0426h24,S2aH1,S5aH8,S2aH8,S5d1017h22,S1c0426h04,S6aH8</v>
+        <v>S2aH8,S5d1017h22,S1b0412h22,S1c0426h24,S2aH1,S5aH8,S1aH8,S5aH1,S1b0412h19,S1c0426h19,S1c0426h21,S1b0412h02,S5d1017h01,S1b0412h24,S1aH1,S1b0412h23,S1c0426h03,S1c0426h06,S1c0426h22,S5d1017h06,S5d1017h23,S1b0412h20,S1c0426h05,S3aH8,S5d1017h02,S5d1017h05,S5d1017h20,S1b0412h05,S1b0412h21,S1c0426h23,S4aH8,S3aH1,S5d1017h19,S1b0412h06,S5d1017h24,S1c0426h04,S6aH8,S1b0412h01,S1b0412h03,S1b0412h04,S5d1017h03,S5d1017h04,S5d1017h21,S1c0426h01,S1c0426h02,S1c0426h20,S4aH1,S6aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S1aH7,S1c0426h10,S1c0426h14,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1b0412h07,S1c0426h18,S2aH6,S3aH5,S5aH3,S5d1017h11,S5d1017h14,S4aH5,S1b0412h14,S5d1017h07,S5d1017h15,S2aH7,S3aH4,S4aH3,S4aH4,S1b0412h09,S1b0412h11,S1c0426h13,S3aH3,S1aH5,S1b0412h12,S2aH4,S2aH5,S5aH2,S5aH5,S5d1017h08,S6aH2,S1b0412h17,S1c0426h08,S1c0426h15,S3aH2,S5d1017h12,S5d1017h18,S1c0426h11,S1c0426h17,S6aH7,S1aH4,S1b0412h08,S2aH2,S4aH6,S5d1017h16,S1b0412h13,S1b0412h18,S1c0426h09,S5aH4,S6aH3,S6aH4,S5d1017h13,S6aH5,S1aH3,S1b0412h10,S5d1017h17,S1b0412h15,S1c0426h07,S4aH2,S1c0426h12,S1c0426h16,S3aH7,S5d1017h10,S1aH6,S1b0412h16,S5d1017h09</v>
+        <v>S1c0426h12,S1c0426h16,S3aH7,S5d1017h10,S1b0412h15,S1c0426h07,S4aH2,S1b0412h07,S1c0426h18,S2aH6,S3aH5,S5aH3,S5d1017h11,S5d1017h14,S1aH2,S1aH7,S1c0426h10,S1c0426h14,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0412h12,S2aH4,S2aH5,S5aH2,S5aH5,S5d1017h08,S6aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1b0412h13,S1b0412h18,S1c0426h09,S5aH4,S6aH3,S6aH4,S1b0412h14,S5d1017h07,S5d1017h15,S1b0412h17,S1c0426h08,S1c0426h15,S3aH2,S5d1017h12,S5d1017h18,S5d1017h13,S6aH5,S1c0426h11,S1c0426h17,S6aH7,S1aH3,S1b0412h10,S5d1017h17,S1aH6,S1b0412h16,S5d1017h09,S1b0412h09,S1b0412h11,S1c0426h13,S3aH3,S4aH5,S1aH4,S1b0412h08,S2aH2,S4aH6,S5d1017h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2135,7 +2135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C0AA4-ECE8-456C-8B6E-DA8F5567E98E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B622CC91-6BF9-4AA0-A951-5BBB786ECE23}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2852,7 +2852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E87445-0373-4D7B-8067-39548F6EF065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1216808B-F38E-4D34-9675-A3C146220CEE}">
   <dimension ref="B2:K123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AD1350-ED9C-46AD-A68D-27E35B4A4AFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8D2A1-1865-40FD-9B37-FBA6D4F00835}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AF0D90-87AE-4A04-80C8-3614F8223857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F851D4A-C582-47ED-B46A-E45D63CCB919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -927,10 +927,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1c0426h12,S1c0426h16,S3aH7,S5d1017h10,S1b0412h15,S1c0426h07,S4aH2,S1b0412h07,S1c0426h18,S2aH6,S3aH5,S5aH3,S5d1017h11,S5d1017h14,S1aH2,S1aH7,S1c0426h10,S1c0426h14,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0412h12,S2aH4,S2aH5,S5aH2,S5aH5,S5d1017h08,S6aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1b0412h13,S1b0412h18,S1c0426h09,S5aH4,S6aH3,S6aH4,S1b0412h14,S5d1017h07,S5d1017h15,S1b0412h17,S1c0426h08,S1c0426h15,S3aH2,S5d1017h12,S5d1017h18,S5d1017h13,S6aH5,S1c0426h11,S1c0426h17,S6aH7,S1aH3,S1b0412h10,S5d1017h17,S1aH6,S1b0412h16,S5d1017h09,S1b0412h09,S1b0412h11,S1c0426h13,S3aH3,S4aH5,S1aH4,S1b0412h08,S2aH2,S4aH6,S5d1017h16</t>
-  </si>
-  <si>
-    <t>S2aH8,S5d1017h22,S1b0412h22,S1c0426h24,S2aH1,S5aH8,S1aH8,S5aH1,S1b0412h19,S1c0426h19,S1c0426h21,S1b0412h02,S5d1017h01,S1b0412h24,S1aH1,S1b0412h23,S1c0426h03,S1c0426h06,S1c0426h22,S5d1017h06,S5d1017h23,S1b0412h20,S1c0426h05,S3aH8,S5d1017h02,S5d1017h05,S5d1017h20,S1b0412h05,S1b0412h21,S1c0426h23,S4aH8,S3aH1,S5d1017h19,S1b0412h06,S5d1017h24,S1c0426h04,S6aH8,S1b0412h01,S1b0412h03,S1b0412h04,S5d1017h03,S5d1017h04,S5d1017h21,S1c0426h01,S1c0426h02,S1c0426h20,S4aH1,S6aH1</t>
+    <t>S1aH4,S1b0412h08,S2aH2,S4aH6,S5d1017h16,S1b0412h07,S1c0426h18,S2aH6,S3aH5,S5aH3,S5d1017h11,S5d1017h14,S4aH5,S1b0412h15,S1c0426h07,S4aH2,S1aH2,S1aH7,S1c0426h10,S1c0426h14,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S5d1017h13,S6aH5,S1aH5,S1b0412h12,S2aH4,S2aH5,S5aH2,S5aH5,S5d1017h08,S6aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1c0426h12,S1c0426h16,S3aH7,S5d1017h10,S1b0412h09,S1b0412h11,S1c0426h13,S3aH3,S1aH6,S1b0412h16,S5d1017h09,S1b0412h13,S1b0412h18,S1c0426h09,S5aH4,S6aH3,S6aH4,S1c0426h11,S1c0426h17,S6aH7,S1b0412h17,S1c0426h08,S1c0426h15,S3aH2,S5d1017h12,S5d1017h18,S1b0412h14,S5d1017h07,S5d1017h15,S1aH3,S1b0412h10,S5d1017h17</t>
+  </si>
+  <si>
+    <t>S1c0426h01,S1c0426h02,S1c0426h20,S4aH1,S6aH1,S1aH8,S5aH1,S1b0412h22,S1c0426h24,S2aH1,S5aH8,S1b0412h19,S1c0426h19,S1b0412h05,S1b0412h21,S1c0426h23,S4aH8,S1c0426h21,S1b0412h02,S5d1017h01,S2aH8,S5d1017h22,S1b0412h01,S1b0412h03,S1b0412h04,S5d1017h03,S5d1017h04,S5d1017h21,S1c0426h04,S6aH8,S1b0412h24,S3aH1,S5d1017h19,S1b0412h20,S1c0426h05,S3aH8,S5d1017h02,S5d1017h05,S5d1017h20,S1aH1,S1b0412h23,S1c0426h03,S1c0426h06,S1c0426h22,S5d1017h06,S5d1017h23,S1b0412h06,S5d1017h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH8,S5d1017h22,S1b0412h22,S1c0426h24,S2aH1,S5aH8,S1aH8,S5aH1,S1b0412h19,S1c0426h19,S1c0426h21,S1b0412h02,S5d1017h01,S1b0412h24,S1aH1,S1b0412h23,S1c0426h03,S1c0426h06,S1c0426h22,S5d1017h06,S5d1017h23,S1b0412h20,S1c0426h05,S3aH8,S5d1017h02,S5d1017h05,S5d1017h20,S1b0412h05,S1b0412h21,S1c0426h23,S4aH8,S3aH1,S5d1017h19,S1b0412h06,S5d1017h24,S1c0426h04,S6aH8,S1b0412h01,S1b0412h03,S1b0412h04,S5d1017h03,S5d1017h04,S5d1017h21,S1c0426h01,S1c0426h02,S1c0426h20,S4aH1,S6aH1</v>
+        <v>S1c0426h01,S1c0426h02,S1c0426h20,S4aH1,S6aH1,S1aH8,S5aH1,S1b0412h22,S1c0426h24,S2aH1,S5aH8,S1b0412h19,S1c0426h19,S1b0412h05,S1b0412h21,S1c0426h23,S4aH8,S1c0426h21,S1b0412h02,S5d1017h01,S2aH8,S5d1017h22,S1b0412h01,S1b0412h03,S1b0412h04,S5d1017h03,S5d1017h04,S5d1017h21,S1c0426h04,S6aH8,S1b0412h24,S3aH1,S5d1017h19,S1b0412h20,S1c0426h05,S3aH8,S5d1017h02,S5d1017h05,S5d1017h20,S1aH1,S1b0412h23,S1c0426h03,S1c0426h06,S1c0426h22,S5d1017h06,S5d1017h23,S1b0412h06,S5d1017h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1c0426h12,S1c0426h16,S3aH7,S5d1017h10,S1b0412h15,S1c0426h07,S4aH2,S1b0412h07,S1c0426h18,S2aH6,S3aH5,S5aH3,S5d1017h11,S5d1017h14,S1aH2,S1aH7,S1c0426h10,S1c0426h14,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S1aH5,S1b0412h12,S2aH4,S2aH5,S5aH2,S5aH5,S5d1017h08,S6aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1b0412h13,S1b0412h18,S1c0426h09,S5aH4,S6aH3,S6aH4,S1b0412h14,S5d1017h07,S5d1017h15,S1b0412h17,S1c0426h08,S1c0426h15,S3aH2,S5d1017h12,S5d1017h18,S5d1017h13,S6aH5,S1c0426h11,S1c0426h17,S6aH7,S1aH3,S1b0412h10,S5d1017h17,S1aH6,S1b0412h16,S5d1017h09,S1b0412h09,S1b0412h11,S1c0426h13,S3aH3,S4aH5,S1aH4,S1b0412h08,S2aH2,S4aH6,S5d1017h16</v>
+        <v>S1aH4,S1b0412h08,S2aH2,S4aH6,S5d1017h16,S1b0412h07,S1c0426h18,S2aH6,S3aH5,S5aH3,S5d1017h11,S5d1017h14,S4aH5,S1b0412h15,S1c0426h07,S4aH2,S1aH2,S1aH7,S1c0426h10,S1c0426h14,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S6aH6,S5d1017h13,S6aH5,S1aH5,S1b0412h12,S2aH4,S2aH5,S5aH2,S5aH5,S5d1017h08,S6aH2,S2aH7,S3aH4,S4aH3,S4aH4,S1c0426h12,S1c0426h16,S3aH7,S5d1017h10,S1b0412h09,S1b0412h11,S1c0426h13,S3aH3,S1aH6,S1b0412h16,S5d1017h09,S1b0412h13,S1b0412h18,S1c0426h09,S5aH4,S6aH3,S6aH4,S1c0426h11,S1c0426h17,S6aH7,S1b0412h17,S1c0426h08,S1c0426h15,S3aH2,S5d1017h12,S5d1017h18,S1b0412h14,S5d1017h07,S5d1017h15,S1aH3,S1b0412h10,S5d1017h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2135,7 +2135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B622CC91-6BF9-4AA0-A951-5BBB786ECE23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6B9117-5773-4F66-99D6-BDFA28E31A03}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2852,7 +2852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1216808B-F38E-4D34-9675-A3C146220CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE580B-0DC8-436B-968E-936D9505006D}">
   <dimension ref="B2:K123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6019,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8D2A1-1865-40FD-9B37-FBA6D4F00835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48178D30-297D-477D-81BF-F9ED6B059A57}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
